--- a/StructureDefinition-ext-R5-ClaimResponse.addItem.xlsx
+++ b/StructureDefinition-ext-R5-ClaimResponse.addItem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9277" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9281" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -542,7 +542,7 @@
     <t>Extension.extension:provider.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -581,15 +581,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the revenue or cost centers supplying the service and/or products.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-revenue-center-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:productOrService</t>
   </si>
   <si>
@@ -622,12 +613,6 @@
   </si>
   <si>
     <t>Extension.extension:productOrService.value[x]</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-uscls-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:productOrServiceEnd</t>
@@ -693,7 +678,7 @@
     <t>Extension.extension:request.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|0.0.1-snapshot-3|MedicationRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|0.0.1-snapshot-3|NutritionOrder|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|0.0.1-snapshot-3|ServiceRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|0.0.1-snapshot-3|SupplyRequest|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|0.0.1-snapshot-3|VisionPrescription|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicationRequest|MedicationRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionOrder|NutritionOrder|http://hl7.org/fhir/5.0/StructureDefinition/profile-ServiceRequest|ServiceRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-SupplyRequest|SupplyRequest|http://hl7.org/fhir/5.0/StructureDefinition/profile-VisionPrescription|VisionPrescription)
 </t>
   </si>
   <si>
@@ -731,12 +716,6 @@
     <t>Extension.extension:modifier.value[x]</t>
   </si>
   <si>
-    <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-modifiers-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:programCode</t>
   </si>
   <si>
@@ -769,12 +748,6 @@
   </si>
   <si>
     <t>Extension.extension:programCode.value[x]</t>
-  </si>
-  <si>
-    <t>Program specific reason codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-program-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:serviced</t>
@@ -848,13 +821,7 @@
   </si>
   <si>
     <t>CodeableConcept
-AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)</t>
-  </si>
-  <si>
-    <t>Place of service: pharmacy, school, prison, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-service-place-for-R4</t>
+AddressReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)</t>
   </si>
   <si>
     <t>Extension.extension:quantity</t>
@@ -888,7 +855,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1146,8 +1113,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:concept.id</t>
@@ -1165,7 +1131,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-tooth-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-tooth-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference</t>
@@ -1180,8 +1146,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:site.extension:reference.id</t>
@@ -1196,7 +1161,7 @@
     <t>Extension.extension:bodySite.extension:site.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -1248,9 +1213,6 @@
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:subSite.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-surface-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.url</t>
@@ -2339,8 +2301,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5871,13 +5833,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5915,13 +5877,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5946,16 +5908,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6024,7 +5986,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -6127,7 +6089,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -6232,7 +6194,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -6275,7 +6237,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6337,7 +6299,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -6366,13 +6328,13 @@
         <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6398,13 +6360,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6442,13 +6404,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6473,14 +6435,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6549,7 +6511,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6652,7 +6614,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6757,7 +6719,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -6800,7 +6762,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6862,7 +6824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -6891,10 +6853,10 @@
         <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6921,11 +6883,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6963,13 +6927,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6994,14 +6958,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7070,7 +7034,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -7173,7 +7137,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -7278,7 +7242,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -7321,7 +7285,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7383,7 +7347,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -7409,13 +7373,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7486,13 +7450,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7517,16 +7481,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7595,7 +7559,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -7698,7 +7662,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -7803,7 +7767,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7846,7 +7810,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7908,7 +7872,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -7937,13 +7901,13 @@
         <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7969,13 +7933,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8013,13 +7977,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8044,16 +8008,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8086,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -8225,7 +8189,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -8330,7 +8294,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -8373,7 +8337,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8435,7 +8399,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -8464,13 +8428,13 @@
         <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8496,13 +8460,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8540,13 +8504,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8571,14 +8535,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8647,7 +8611,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -8750,7 +8714,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -8855,7 +8819,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -8898,7 +8862,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8960,7 +8924,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -8986,13 +8950,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9063,13 +9027,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9094,14 +9058,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9170,7 +9134,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -9273,7 +9237,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -9378,7 +9342,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -9421,7 +9385,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9483,7 +9447,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -9509,13 +9473,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9542,13 +9506,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9586,13 +9550,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9617,14 +9581,14 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9693,7 +9657,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>105</v>
@@ -9796,7 +9760,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>107</v>
@@ -9901,7 +9865,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9944,7 +9908,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -10006,7 +9970,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>122</v>
@@ -10032,13 +9996,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10109,13 +10073,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10140,14 +10104,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10216,7 +10180,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -10319,7 +10283,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -10424,7 +10388,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>113</v>
@@ -10467,7 +10431,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10529,7 +10493,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>122</v>
@@ -10555,13 +10519,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10632,13 +10596,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10663,16 +10627,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10741,7 +10705,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>105</v>
@@ -10844,7 +10808,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>107</v>
@@ -10949,7 +10913,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -10992,7 +10956,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11054,7 +11018,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -11080,16 +11044,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11159,13 +11123,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11190,14 +11154,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11266,7 +11230,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>105</v>
@@ -11369,7 +11333,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>107</v>
@@ -11474,7 +11438,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -11517,7 +11481,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11579,7 +11543,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>122</v>
@@ -11605,13 +11569,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11682,13 +11646,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11713,16 +11677,16 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11791,7 +11755,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11894,7 +11858,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -11999,7 +11963,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -12042,7 +12006,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12104,7 +12068,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
@@ -12130,16 +12094,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12209,13 +12173,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12240,14 +12204,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12316,7 +12280,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -12419,7 +12383,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -12522,13 +12486,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12553,16 +12517,16 @@
         <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12631,10 +12595,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12734,10 +12698,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12837,13 +12801,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12868,10 +12832,10 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12942,10 +12906,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13045,10 +13009,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13150,10 +13114,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13193,7 +13157,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -13255,10 +13219,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13284,13 +13248,13 @@
         <v>87</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13298,7 +13262,7 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>77</v>
@@ -13360,13 +13324,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -13391,14 +13355,14 @@
         <v>93</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13467,10 +13431,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13570,10 +13534,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13675,10 +13639,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13718,7 +13682,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13780,10 +13744,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13809,10 +13773,10 @@
         <v>178</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13839,11 +13803,11 @@
         <v>77</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>77</v>
@@ -13881,13 +13845,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13912,14 +13876,14 @@
         <v>93</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13988,10 +13952,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14091,10 +14055,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14196,10 +14160,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14239,7 +14203,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -14301,10 +14265,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14327,13 +14291,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14404,10 +14368,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14447,7 +14411,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14509,10 +14473,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14535,13 +14499,13 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14612,13 +14576,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14643,14 +14607,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14719,10 +14683,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14822,10 +14786,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14927,10 +14891,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14970,7 +14934,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -15032,10 +14996,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15061,10 +15025,10 @@
         <v>178</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15091,11 +15055,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y122" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z122" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -15133,7 +15099,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>113</v>
@@ -15176,7 +15142,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -15238,7 +15204,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>122</v>
@@ -15264,13 +15230,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15341,13 +15307,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -15372,14 +15338,14 @@
         <v>93</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -15448,7 +15414,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>105</v>
@@ -15551,7 +15517,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>107</v>
@@ -15656,7 +15622,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>113</v>
@@ -15699,7 +15665,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15761,7 +15727,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>122</v>
@@ -15790,10 +15756,10 @@
         <v>123</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15864,13 +15830,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15895,14 +15861,14 @@
         <v>93</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15971,7 +15937,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>105</v>
@@ -16074,7 +16040,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>107</v>
@@ -16179,7 +16145,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>113</v>
@@ -16222,7 +16188,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -16284,7 +16250,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>122</v>
@@ -16310,13 +16276,13 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -16387,13 +16353,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -16418,14 +16384,14 @@
         <v>93</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -16494,7 +16460,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>105</v>
@@ -16597,7 +16563,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>107</v>
@@ -16702,7 +16668,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>113</v>
@@ -16745,7 +16711,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16807,7 +16773,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>122</v>
@@ -16833,13 +16799,13 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -16910,13 +16876,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>77</v>
@@ -16941,14 +16907,14 @@
         <v>93</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>77</v>
@@ -17017,7 +16983,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>105</v>
@@ -17120,7 +17086,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>107</v>
@@ -17223,7 +17189,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>107</v>
@@ -17261,7 +17227,7 @@
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -17330,10 +17296,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17433,10 +17399,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17538,10 +17504,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17581,7 +17547,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17643,10 +17609,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17746,7 +17712,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
@@ -17784,7 +17750,7 @@
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17853,10 +17819,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17956,10 +17922,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18061,10 +18027,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18104,7 +18070,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18166,10 +18132,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18225,13 +18191,13 @@
         <v>77</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>77</v>
@@ -18269,13 +18235,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18300,16 +18266,16 @@
         <v>93</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18378,10 +18344,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18481,10 +18447,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18586,10 +18552,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18629,7 +18595,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18691,10 +18657,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18720,13 +18686,13 @@
         <v>178</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18752,13 +18718,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18796,13 +18762,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18827,14 +18793,14 @@
         <v>93</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18903,10 +18869,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19006,10 +18972,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19111,10 +19077,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19154,7 +19120,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19216,10 +19182,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19245,10 +19211,10 @@
         <v>178</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19275,11 +19241,13 @@
         <v>77</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y162" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z162" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>77</v>
@@ -19317,13 +19285,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19348,16 +19316,16 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19426,10 +19394,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19529,10 +19497,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19634,10 +19602,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19677,7 +19645,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19739,10 +19707,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19768,13 +19736,13 @@
         <v>178</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19800,13 +19768,13 @@
         <v>77</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>77</v>
@@ -19844,13 +19812,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19875,14 +19843,14 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19951,10 +19919,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20054,10 +20022,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20159,10 +20127,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20202,7 +20170,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20264,10 +20232,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20290,13 +20258,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20367,13 +20335,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20398,14 +20366,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20474,10 +20442,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20577,10 +20545,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20682,10 +20650,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20725,7 +20693,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20787,10 +20755,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20813,13 +20781,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20890,13 +20858,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20921,16 +20889,16 @@
         <v>93</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20999,10 +20967,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21102,10 +21070,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21207,10 +21175,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21250,7 +21218,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21312,10 +21280,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21338,16 +21306,16 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
@@ -21417,13 +21385,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21448,14 +21416,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21524,10 +21492,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21627,10 +21595,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21732,10 +21700,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21775,7 +21743,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21837,10 +21805,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21863,13 +21831,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21940,13 +21908,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21971,16 +21939,16 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22049,10 +22017,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22152,10 +22120,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22257,10 +22225,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22300,7 +22268,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22362,10 +22330,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22388,16 +22356,16 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22467,13 +22435,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22498,14 +22466,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22574,10 +22542,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22677,10 +22645,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22782,10 +22750,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22825,7 +22793,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22887,10 +22855,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22916,10 +22884,10 @@
         <v>123</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -22990,13 +22958,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23021,14 +22989,14 @@
         <v>93</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23097,10 +23065,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23200,10 +23168,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23305,10 +23273,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23348,7 +23316,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23410,10 +23378,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23436,13 +23404,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23513,13 +23481,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>77</v>
@@ -23544,14 +23512,14 @@
         <v>93</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>77</v>
@@ -23620,10 +23588,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23723,10 +23691,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23828,10 +23796,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23871,7 +23839,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23933,10 +23901,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23959,13 +23927,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -24036,13 +24004,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -24070,11 +24038,11 @@
         <v>81</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24143,10 +24111,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24246,10 +24214,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24349,10 +24317,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C211" t="s" s="2">
         <v>147</v>
@@ -24387,7 +24355,7 @@
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>77</v>
@@ -24456,10 +24424,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24559,10 +24527,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24664,10 +24632,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24707,7 +24675,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24769,10 +24737,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24872,10 +24840,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>169</v>
@@ -24910,7 +24878,7 @@
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>77</v>
@@ -24979,10 +24947,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25082,10 +25050,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25187,10 +25155,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25230,7 +25198,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>77</v>
@@ -25292,10 +25260,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25351,13 +25319,13 @@
         <v>77</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>77</v>
@@ -25395,13 +25363,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>77</v>
@@ -25426,16 +25394,16 @@
         <v>93</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25504,10 +25472,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25607,10 +25575,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25712,10 +25680,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25755,7 +25723,7 @@
       </c>
       <c r="Q224" s="2"/>
       <c r="R224" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>77</v>
@@ -25817,10 +25785,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25846,13 +25814,13 @@
         <v>178</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -25878,13 +25846,13 @@
         <v>77</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>77</v>
@@ -25922,13 +25890,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>77</v>
@@ -25953,14 +25921,14 @@
         <v>93</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>77</v>
@@ -26029,10 +25997,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26132,10 +26100,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26237,10 +26205,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26280,7 +26248,7 @@
       </c>
       <c r="Q229" s="2"/>
       <c r="R229" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>77</v>
@@ -26342,10 +26310,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26371,10 +26339,10 @@
         <v>178</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -26401,11 +26369,13 @@
         <v>77</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y230" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z230" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>77</v>
@@ -26443,13 +26413,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>77</v>
@@ -26474,16 +26444,16 @@
         <v>93</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>77</v>
@@ -26552,10 +26522,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26655,10 +26625,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26760,10 +26730,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26803,7 +26773,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>77</v>
@@ -26865,10 +26835,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26894,13 +26864,13 @@
         <v>178</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
@@ -26926,13 +26896,13 @@
         <v>77</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z235" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>77</v>
@@ -26970,13 +26940,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>77</v>
@@ -27001,14 +26971,14 @@
         <v>93</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27077,10 +27047,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27180,10 +27150,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27285,10 +27255,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27328,7 +27298,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27390,10 +27360,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27416,13 +27386,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27493,13 +27463,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -27524,14 +27494,14 @@
         <v>93</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -27600,10 +27570,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27703,10 +27673,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -27808,10 +27778,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -27851,7 +27821,7 @@
       </c>
       <c r="Q244" s="2"/>
       <c r="R244" t="s" s="2">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>77</v>
@@ -27913,10 +27883,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -27939,13 +27909,13 @@
         <v>77</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -28016,13 +27986,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>77</v>
@@ -28047,16 +28017,16 @@
         <v>93</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="P246" t="s" s="2">
         <v>77</v>
@@ -28125,10 +28095,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28228,10 +28198,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28333,10 +28303,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28376,7 +28346,7 @@
       </c>
       <c r="Q249" s="2"/>
       <c r="R249" t="s" s="2">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="S249" t="s" s="2">
         <v>77</v>
@@ -28438,10 +28408,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28464,16 +28434,16 @@
         <v>77</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
@@ -28543,13 +28513,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -28574,14 +28544,14 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>77</v>
@@ -28650,10 +28620,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28753,10 +28723,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -28858,10 +28828,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -28901,7 +28871,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -28963,10 +28933,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -28989,13 +28959,13 @@
         <v>77</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -29066,13 +29036,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -29097,16 +29067,16 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O256" t="s" s="2">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -29175,10 +29145,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29278,10 +29248,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29383,10 +29353,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29426,7 +29396,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -29488,10 +29458,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29514,16 +29484,16 @@
         <v>77</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
@@ -29593,13 +29563,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -29624,14 +29594,14 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -29700,10 +29670,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29803,10 +29773,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -29908,10 +29878,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -29951,7 +29921,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -30013,10 +29983,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30042,10 +30012,10 @@
         <v>123</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -30116,13 +30086,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>77</v>
@@ -30147,14 +30117,14 @@
         <v>93</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>77</v>
@@ -30223,10 +30193,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30326,10 +30296,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30431,10 +30401,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30474,7 +30444,7 @@
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="S269" t="s" s="2">
         <v>77</v>
@@ -30536,10 +30506,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30562,13 +30532,13 @@
         <v>77</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -30639,13 +30609,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
@@ -30670,14 +30640,14 @@
         <v>93</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>77</v>
@@ -30746,10 +30716,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -30849,10 +30819,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -30954,10 +30924,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -30997,7 +30967,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>77</v>
@@ -31059,10 +31029,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31085,13 +31055,13 @@
         <v>77</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -31162,10 +31132,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31205,7 +31175,7 @@
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>77</v>
@@ -31267,10 +31237,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31293,13 +31263,13 @@
         <v>77</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -31370,7 +31340,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>113</v>
@@ -31413,7 +31383,7 @@
       </c>
       <c r="Q278" s="2"/>
       <c r="R278" t="s" s="2">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="S278" t="s" s="2">
         <v>77</v>
@@ -31475,7 +31445,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>122</v>
@@ -31501,13 +31471,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -31709,13 +31679,13 @@
         <v>77</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
